--- a/GaN results/GaN test losses.xlsx
+++ b/GaN results/GaN test losses.xlsx
@@ -522,64 +522,64 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>29.13519096374512</v>
+        <v>31.52680206298828</v>
       </c>
       <c r="B2">
-        <v>14.04884433746338</v>
+        <v>13.5409107208252</v>
       </c>
       <c r="C2">
-        <v>6.046176910400391</v>
+        <v>6.000961780548096</v>
       </c>
       <c r="D2">
-        <v>4.513071537017822</v>
+        <v>3.703777074813843</v>
       </c>
       <c r="E2">
-        <v>3.962064266204834</v>
+        <v>5.462231636047363</v>
       </c>
       <c r="F2">
-        <v>5.345550060272217</v>
+        <v>4.414896488189697</v>
       </c>
       <c r="G2">
-        <v>9.498203277587891</v>
+        <v>7.792568206787109</v>
       </c>
       <c r="H2">
-        <v>9.393208503723145</v>
+        <v>8.072181701660156</v>
       </c>
       <c r="I2">
-        <v>4.858749866485596</v>
+        <v>3.625152826309204</v>
       </c>
       <c r="J2">
-        <v>3.079640865325928</v>
+        <v>4.780004501342773</v>
       </c>
       <c r="K2">
-        <v>8.088065147399902</v>
+        <v>9.637692451477051</v>
       </c>
       <c r="L2">
-        <v>9.341126441955566</v>
+        <v>10.62868022918701</v>
       </c>
       <c r="M2">
-        <v>6.780905723571777</v>
+        <v>7.444102764129639</v>
       </c>
       <c r="N2">
-        <v>5.160744667053223</v>
+        <v>5.198358058929443</v>
       </c>
       <c r="O2">
-        <v>8.704585075378418</v>
+        <v>8.462302207946777</v>
       </c>
       <c r="P2">
-        <v>5.949143886566162</v>
+        <v>5.819161891937256</v>
       </c>
       <c r="Q2">
-        <v>3.996538162231445</v>
+        <v>4.719168663024902</v>
       </c>
       <c r="R2">
-        <v>3.061047077178955</v>
+        <v>5.194072723388672</v>
       </c>
       <c r="S2">
-        <v>8.106654167175293</v>
+        <v>10.74898719787598</v>
       </c>
       <c r="T2">
-        <v>15.11228275299072</v>
+        <v>16.9611930847168</v>
       </c>
       <c r="U2" t="s">
         <v>21</v>
@@ -587,64 +587,64 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>30.83099174499512</v>
+        <v>32.49351501464844</v>
       </c>
       <c r="B3">
-        <v>14.90959739685059</v>
+        <v>14.05700206756592</v>
       </c>
       <c r="C3">
-        <v>6.198952674865723</v>
+        <v>5.982707500457764</v>
       </c>
       <c r="D3">
-        <v>4.444823741912842</v>
+        <v>3.969169855117798</v>
       </c>
       <c r="E3">
-        <v>4.135869979858398</v>
+        <v>4.879266738891602</v>
       </c>
       <c r="F3">
-        <v>4.523850917816162</v>
+        <v>4.732035636901855</v>
       </c>
       <c r="G3">
-        <v>8.228178977966309</v>
+        <v>6.706760406494141</v>
       </c>
       <c r="H3">
-        <v>7.778713226318359</v>
+        <v>6.717829704284668</v>
       </c>
       <c r="I3">
-        <v>4.338900566101074</v>
+        <v>3.99421501159668</v>
       </c>
       <c r="J3">
-        <v>3.623959541320801</v>
+        <v>4.358594417572021</v>
       </c>
       <c r="K3">
-        <v>8.100647926330566</v>
+        <v>8.945047378540039</v>
       </c>
       <c r="L3">
-        <v>8.876145362854004</v>
+        <v>10.18123626708984</v>
       </c>
       <c r="M3">
-        <v>6.559370040893555</v>
+        <v>8.08738899230957</v>
       </c>
       <c r="N3">
-        <v>5.57264518737793</v>
+        <v>6.169315338134766</v>
       </c>
       <c r="O3">
-        <v>9.820528984069824</v>
+        <v>8.162685394287109</v>
       </c>
       <c r="P3">
-        <v>5.97329044342041</v>
+        <v>5.520047664642334</v>
       </c>
       <c r="Q3">
-        <v>4.525638103485107</v>
+        <v>4.256744384765625</v>
       </c>
       <c r="R3">
-        <v>4.15624475479126</v>
+        <v>4.589926242828369</v>
       </c>
       <c r="S3">
-        <v>12.02400779724121</v>
+        <v>9.870804786682129</v>
       </c>
       <c r="T3">
-        <v>13.06695079803467</v>
+        <v>14.2203254699707</v>
       </c>
       <c r="U3" t="s">
         <v>22</v>
@@ -652,64 +652,64 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>30.06275939941406</v>
+        <v>31.71075630187988</v>
       </c>
       <c r="B4">
-        <v>13.9084358215332</v>
+        <v>13.17362880706787</v>
       </c>
       <c r="C4">
-        <v>5.508227348327637</v>
+        <v>5.543973445892334</v>
       </c>
       <c r="D4">
-        <v>4.129974365234375</v>
+        <v>3.719238996505737</v>
       </c>
       <c r="E4">
-        <v>4.146597385406494</v>
+        <v>5.202259540557861</v>
       </c>
       <c r="F4">
-        <v>5.015615940093994</v>
+        <v>4.604156017303467</v>
       </c>
       <c r="G4">
-        <v>8.558216094970703</v>
+        <v>7.720875263214111</v>
       </c>
       <c r="H4">
-        <v>8.594324111938477</v>
+        <v>7.781821250915527</v>
       </c>
       <c r="I4">
-        <v>4.617962837219238</v>
+        <v>3.554863929748535</v>
       </c>
       <c r="J4">
-        <v>3.366373300552368</v>
+        <v>4.727165699005127</v>
       </c>
       <c r="K4">
-        <v>8.371543884277344</v>
+        <v>9.633718490600586</v>
       </c>
       <c r="L4">
-        <v>9.250804901123047</v>
+        <v>10.24574565887451</v>
       </c>
       <c r="M4">
-        <v>6.809847354888916</v>
+        <v>6.992963790893555</v>
       </c>
       <c r="N4">
-        <v>5.318143844604492</v>
+        <v>4.759756088256836</v>
       </c>
       <c r="O4">
-        <v>8.532105445861816</v>
+        <v>8.161084175109863</v>
       </c>
       <c r="P4">
-        <v>5.968237400054932</v>
+        <v>5.914128303527832</v>
       </c>
       <c r="Q4">
-        <v>3.534229755401611</v>
+        <v>4.06558084487915</v>
       </c>
       <c r="R4">
-        <v>3.097923517227173</v>
+        <v>4.453719615936279</v>
       </c>
       <c r="S4">
-        <v>9.011983871459961</v>
+        <v>9.93848991394043</v>
       </c>
       <c r="T4">
-        <v>13.93004417419434</v>
+        <v>15.67503547668457</v>
       </c>
       <c r="U4" t="s">
         <v>23</v>
@@ -717,64 +717,64 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>29.72256660461426</v>
+        <v>31.9803581237793</v>
       </c>
       <c r="B5">
-        <v>14.01273918151855</v>
+        <v>13.60435581207275</v>
       </c>
       <c r="C5">
-        <v>6.182429313659668</v>
+        <v>6.302679538726807</v>
       </c>
       <c r="D5">
-        <v>4.444297790527344</v>
+        <v>3.761724233627319</v>
       </c>
       <c r="E5">
-        <v>4.133327960968018</v>
+        <v>5.484067916870117</v>
       </c>
       <c r="F5">
-        <v>5.272298812866211</v>
+        <v>4.551106452941895</v>
       </c>
       <c r="G5">
-        <v>9.278818130493164</v>
+        <v>7.837808609008789</v>
       </c>
       <c r="H5">
-        <v>9.250421524047852</v>
+        <v>8.209280014038086</v>
       </c>
       <c r="I5">
-        <v>4.785897254943848</v>
+        <v>3.628457546234131</v>
       </c>
       <c r="J5">
-        <v>3.129487037658691</v>
+        <v>4.587504386901855</v>
       </c>
       <c r="K5">
-        <v>8.135290145874023</v>
+        <v>9.536001205444336</v>
       </c>
       <c r="L5">
-        <v>9.361617088317871</v>
+        <v>10.59021759033203</v>
       </c>
       <c r="M5">
-        <v>6.838565826416016</v>
+        <v>7.40559196472168</v>
       </c>
       <c r="N5">
-        <v>5.142726898193359</v>
+        <v>4.842405319213867</v>
       </c>
       <c r="O5">
-        <v>8.483104705810547</v>
+        <v>8.267072677612305</v>
       </c>
       <c r="P5">
-        <v>5.929637432098389</v>
+        <v>5.858439922332764</v>
       </c>
       <c r="Q5">
-        <v>3.81154203414917</v>
+        <v>4.713112831115723</v>
       </c>
       <c r="R5">
-        <v>3.117705345153809</v>
+        <v>5.00480318069458</v>
       </c>
       <c r="S5">
-        <v>8.109793663024902</v>
+        <v>10.28852462768555</v>
       </c>
       <c r="T5">
-        <v>14.61344623565674</v>
+        <v>16.6181583404541</v>
       </c>
       <c r="U5" t="s">
         <v>24</v>
@@ -782,64 +782,64 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>29.45152854919434</v>
+        <v>31.80628395080566</v>
       </c>
       <c r="B6">
-        <v>14.3799524307251</v>
+        <v>13.82437038421631</v>
       </c>
       <c r="C6">
-        <v>6.355993747711182</v>
+        <v>6.217858791351318</v>
       </c>
       <c r="D6">
-        <v>4.581375122070312</v>
+        <v>3.84413480758667</v>
       </c>
       <c r="E6">
-        <v>3.942641258239746</v>
+        <v>5.504620552062988</v>
       </c>
       <c r="F6">
-        <v>5.285456657409668</v>
+        <v>4.494975566864014</v>
       </c>
       <c r="G6">
-        <v>9.398059844970703</v>
+        <v>7.915070056915283</v>
       </c>
       <c r="H6">
-        <v>9.307456016540527</v>
+        <v>8.226500511169434</v>
       </c>
       <c r="I6">
-        <v>4.795943737030029</v>
+        <v>3.699390649795532</v>
       </c>
       <c r="J6">
-        <v>2.98535680770874</v>
+        <v>4.662662506103516</v>
       </c>
       <c r="K6">
-        <v>7.932898044586182</v>
+        <v>9.634943962097168</v>
       </c>
       <c r="L6">
-        <v>9.264451026916504</v>
+        <v>10.75380992889404</v>
       </c>
       <c r="M6">
-        <v>6.7790207862854</v>
+        <v>7.567132949829102</v>
       </c>
       <c r="N6">
-        <v>5.128197193145752</v>
+        <v>5.063357353210449</v>
       </c>
       <c r="O6">
-        <v>8.380889892578125</v>
+        <v>8.250363349914551</v>
       </c>
       <c r="P6">
-        <v>5.827569007873535</v>
+        <v>5.761558055877686</v>
       </c>
       <c r="Q6">
-        <v>4.099645137786865</v>
+        <v>4.974848747253418</v>
       </c>
       <c r="R6">
-        <v>3.10804295539856</v>
+        <v>5.282612323760986</v>
       </c>
       <c r="S6">
-        <v>7.933325290679932</v>
+        <v>10.52291488647461</v>
       </c>
       <c r="T6">
-        <v>15.2860689163208</v>
+        <v>17.22900581359863</v>
       </c>
       <c r="U6" t="s">
         <v>25</v>
